--- a/docentes/Rivera Cruz Ezequiel Estadisticos 2020.xlsx
+++ b/docentes/Rivera Cruz Ezequiel Estadisticos 2020.xlsx
@@ -1021,7 +1021,7 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1044,7 +1044,7 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1067,7 +1067,7 @@
         <v>14</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
